--- a/user stories-crs.xlsx
+++ b/user stories-crs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>USER STORIES - CAMPUS RECRUITMENT SYSTEM</t>
   </si>
@@ -35,9 +35,6 @@
     <t>SUB-FEATURES</t>
   </si>
   <si>
-    <t>TASK</t>
-  </si>
-  <si>
     <t>STUDENT</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>Registration</t>
   </si>
   <si>
-    <t>Rrgistration</t>
-  </si>
-  <si>
     <t>Create Profile</t>
   </si>
   <si>
@@ -113,10 +107,31 @@
     <t>Download and Read</t>
   </si>
   <si>
-    <t xml:space="preserve">            Send mail to Students</t>
-  </si>
-  <si>
     <t>View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Send notification to TPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Generate Result</t>
+  </si>
+  <si>
+    <t>Send to TPO</t>
+  </si>
+  <si>
+    <t>Send notification</t>
+  </si>
+  <si>
+    <t>TASK2</t>
+  </si>
+  <si>
+    <t>TASK1</t>
+  </si>
+  <si>
+    <t>View Status</t>
+  </si>
+  <si>
+    <t>Get Result</t>
   </si>
 </sst>
 </file>
@@ -168,12 +183,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -486,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,189 +531,234 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s">
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
       <c r="B28" t="s">
         <v>29</v>
       </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="A3:A11"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B23:B25"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
